--- a/examples/wells_caprocks_ucerf/Results/results.xlsx
+++ b/examples/wells_caprocks_ucerf/Results/results.xlsx
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.729e-05</v>
+        <v>2.843e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001755</v>
+        <v>0.0001824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001954</v>
+        <v>0.0001986</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000146</v>
+        <v>0.0001197</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -759,16 +759,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.854e-05</v>
+        <v>2.721e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001403</v>
+        <v>0.000178</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002275</v>
+        <v>0.0002682</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001427</v>
+        <v>0.0001399</v>
       </c>
     </row>
     <row r="3">
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.818e-05</v>
+        <v>3.015e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001921</v>
+        <v>0.0001984</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002133</v>
+        <v>0.0002153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001623</v>
+        <v>0.0001321</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.107e-05</v>
+        <v>2.758e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001489</v>
+        <v>0.0001844</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002511</v>
+        <v>0.0002757</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001538</v>
+        <v>0.0001485</v>
       </c>
     </row>
     <row r="4">
@@ -839,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2.997e-05</v>
+        <v>3.122e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000207</v>
+        <v>0.0002131</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00023</v>
+        <v>0.0002315</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001751</v>
+        <v>0.0001424</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -857,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.171e-05</v>
+        <v>2.907e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001597</v>
+        <v>0.000198</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0002682</v>
+        <v>0.0002973</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0001652</v>
+        <v>0.0001606</v>
       </c>
     </row>
     <row r="5">
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.749e-05</v>
+        <v>3.043e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001837</v>
+        <v>0.0001908</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002046</v>
+        <v>0.0002072</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001538</v>
+        <v>0.0001258</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.045e-05</v>
+        <v>2.701e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001453</v>
+        <v>0.0001827</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002398</v>
+        <v>0.0002738</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001485</v>
+        <v>0.0001448</v>
       </c>
     </row>
     <row r="6">
@@ -937,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.769e-05</v>
+        <v>2.99e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001829</v>
+        <v>0.0001894</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002036</v>
+        <v>0.0002057</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001538</v>
+        <v>0.0001255</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.97e-05</v>
+        <v>2.684e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0001434</v>
+        <v>0.0001786</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0002431</v>
+        <v>0.0002677</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001472</v>
+        <v>0.0001425</v>
       </c>
     </row>
     <row r="7">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.881e-05</v>
+        <v>3.149e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000192</v>
+        <v>0.0001988</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002138</v>
+        <v>0.0002158</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001608</v>
+        <v>0.0001314</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.097e-05</v>
+        <v>2.849e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001511</v>
+        <v>0.0001904</v>
       </c>
       <c r="N7" t="n">
-        <v>0.000252</v>
+        <v>0.000285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001548</v>
+        <v>0.0001515</v>
       </c>
     </row>
     <row r="8">
@@ -1035,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.837e-05</v>
+        <v>3.03e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001935</v>
+        <v>0.0001998</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002149</v>
+        <v>0.0002168</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001634</v>
+        <v>0.0001331</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.127e-05</v>
+        <v>2.775e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00015</v>
+        <v>0.0001858</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0002529</v>
+        <v>0.0002778</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001549</v>
+        <v>0.0001497</v>
       </c>
     </row>
     <row r="9">
@@ -1084,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.985e-05</v>
+        <v>3.117e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002057</v>
+        <v>0.0002118</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002285</v>
+        <v>0.00023</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001739</v>
+        <v>0.0001415</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.17e-05</v>
+        <v>2.872e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001587</v>
+        <v>0.0001968</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002667</v>
+        <v>0.0002955</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001641</v>
+        <v>0.0001595</v>
       </c>
     </row>
     <row r="10">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2.684e-05</v>
+        <v>2.807e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001719</v>
+        <v>0.0001787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001913</v>
+        <v>0.0001947</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000143</v>
+        <v>0.0001173</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.805e-05</v>
+        <v>2.705e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0001375</v>
+        <v>0.0001743</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002232</v>
+        <v>0.0002618</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001399</v>
+        <v>0.0001368</v>
       </c>
     </row>
     <row r="11">
@@ -1182,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.845e-05</v>
+        <v>3.004e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001909</v>
+        <v>0.0001973</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002122</v>
+        <v>0.0002141</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000161</v>
+        <v>0.0001312</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.081e-05</v>
+        <v>2.813e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0001485</v>
+        <v>0.0001845</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0002508</v>
+        <v>0.0002758</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001531</v>
+        <v>0.0001481</v>
       </c>
     </row>
     <row r="12">
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.045e-05</v>
+        <v>3.166e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002072</v>
+        <v>0.0002133</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002301</v>
+        <v>0.0002315</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001749</v>
+        <v>0.0001423</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.216e-05</v>
+        <v>2.891e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0001602</v>
+        <v>0.0001991</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0002693</v>
+        <v>0.0002989</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001654</v>
+        <v>0.0001611</v>
       </c>
     </row>
     <row r="13">
@@ -1280,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.837e-05</v>
+        <v>3.047e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001873</v>
+        <v>0.0001939</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0002084</v>
+        <v>0.0002106</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001575</v>
+        <v>0.0001286</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.037e-05</v>
+        <v>2.775e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001468</v>
+        <v>0.0001832</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0002485</v>
+        <v>0.0002742</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001507</v>
+        <v>0.0001462</v>
       </c>
     </row>
     <row r="14">
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.846e-05</v>
+        <v>3.054e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000188</v>
+        <v>0.0001944</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002091</v>
+        <v>0.0002112</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000158</v>
+        <v>0.000129</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001472</v>
+        <v>0.0001835</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0002491</v>
+        <v>0.0002745</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001511</v>
+        <v>0.0001465</v>
       </c>
     </row>
     <row r="15">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.729e-05</v>
+        <v>2.843e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001755</v>
+        <v>0.0001824</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001954</v>
+        <v>0.0001986</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000146</v>
+        <v>0.0001197</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.854e-05</v>
+        <v>2.721e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001403</v>
+        <v>0.000178</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0002275</v>
+        <v>0.0002682</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0001427</v>
+        <v>0.0001399</v>
       </c>
     </row>
     <row r="16">
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.854e-05</v>
+        <v>3.036e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000196</v>
+        <v>0.0002023</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0002177</v>
+        <v>0.0002196</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001657</v>
+        <v>0.0001349</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1445,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.137e-05</v>
+        <v>2.767e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0001517</v>
+        <v>0.000188</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0002561</v>
+        <v>0.0002824</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001568</v>
+        <v>0.0001516</v>
       </c>
     </row>
     <row r="17">
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.959e-05</v>
+        <v>3.096e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002048</v>
+        <v>0.000211</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002275</v>
+        <v>0.0002291</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001733</v>
+        <v>0.000141</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.153e-05</v>
+        <v>2.856e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000158</v>
+        <v>0.0001957</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0002655</v>
+        <v>0.000294</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001634</v>
+        <v>0.0001587</v>
       </c>
     </row>
     <row r="18">
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.684e-05</v>
+        <v>2.807e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001719</v>
+        <v>0.0001787</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001913</v>
+        <v>0.0001947</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000143</v>
+        <v>0.0001173</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.805e-05</v>
+        <v>2.705e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001375</v>
+        <v>0.0001743</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0002232</v>
+        <v>0.0002618</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0001399</v>
+        <v>0.0001368</v>
       </c>
     </row>
     <row r="19">
@@ -1574,16 +1574,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.846e-05</v>
+        <v>3.054e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000188</v>
+        <v>0.0001944</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0002091</v>
+        <v>0.0002112</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000158</v>
+        <v>0.000129</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.05e-05</v>
+        <v>2.8e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001472</v>
+        <v>0.0001835</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0002491</v>
+        <v>0.0002745</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0001511</v>
+        <v>0.0001465</v>
       </c>
     </row>
     <row r="20">
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.028e-05</v>
+        <v>3.154e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002002</v>
+        <v>0.0002069</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0002229</v>
+        <v>0.0002246</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001686</v>
+        <v>0.0001375</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.203e-05</v>
+        <v>2.959e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001563</v>
+        <v>0.0001952</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0002631</v>
+        <v>0.0002913</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0001606</v>
+        <v>0.0001567</v>
       </c>
     </row>
     <row r="21">
@@ -1672,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.879e-05</v>
+        <v>3.038e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001933</v>
+        <v>0.0001998</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0002148</v>
+        <v>0.0002168</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000163</v>
+        <v>0.0001329</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.106e-05</v>
+        <v>2.829e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001503</v>
+        <v>0.0001868</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002536</v>
+        <v>0.0002791</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0001549</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="22">
@@ -1721,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.919e-05</v>
+        <v>3.058e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000196</v>
+        <v>0.0002024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0002178</v>
+        <v>0.0002196</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001652</v>
+        <v>0.0001346</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.146e-05</v>
+        <v>2.845e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001522</v>
+        <v>0.0001891</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0002565</v>
+        <v>0.0002825</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0001569</v>
+        <v>0.0001521</v>
       </c>
     </row>
   </sheetData>
@@ -1918,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.852e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>4.474e-05</v>
+        <v>4.442e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001811</v>
+        <v>0.0001995</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000451</v>
+        <v>0.000481</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001068</v>
+        <v>0.0001109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.679e-06</v>
+        <v>4.016e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>1.537e-05</v>
+        <v>1.581e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.503e-05</v>
+        <v>4.889e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05e-05</v>
+        <v>1.072e-05</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1957,34 +1957,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.108999999999999e-07</v>
+        <v>6.378e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>2.159e-06</v>
+        <v>2.436e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>7.397e-06</v>
+        <v>8.026000000000001e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.707e-06</v>
+        <v>1.766e-06</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0007365</v>
+        <v>0.0008466</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003708</v>
+        <v>0.003721</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00908</v>
+        <v>0.009278</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01585</v>
+        <v>0.0151</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.005073</v>
+        <v>0.005109</v>
       </c>
     </row>
     <row r="3">
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.188e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>4.524e-05</v>
+        <v>4.411e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001866</v>
+        <v>0.0001993</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004807</v>
+        <v>0.0004883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001125</v>
+        <v>0.0001121</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.171e-05</v>
+        <v>1.198e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>4.901e-05</v>
+        <v>5.253e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001377</v>
+        <v>0.0001461</v>
       </c>
       <c r="O3" t="n">
-        <v>3.193e-05</v>
+        <v>3.208e-05</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2042,34 +2042,34 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.378e-07</v>
+        <v>1.909e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>7.539e-07</v>
+        <v>8.212e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>2.581e-06</v>
+        <v>2.658e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>5.961e-07</v>
+        <v>6.059e-07</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001128</v>
+        <v>0.001267</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005836</v>
+        <v>0.00588</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01443</v>
+        <v>0.01487</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02497</v>
+        <v>0.0239</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.008047</v>
+        <v>0.00805</v>
       </c>
     </row>
     <row r="4">
@@ -2088,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.209e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>4.535e-05</v>
+        <v>4.491e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001841</v>
+        <v>0.0002068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004824</v>
+        <v>0.0004963</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001126</v>
+        <v>0.0001157</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2109,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.983e-06</v>
+        <v>4.295e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>1.614e-05</v>
+        <v>1.795e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.827e-05</v>
+        <v>5.402e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.121e-05</v>
+        <v>1.184e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2127,34 +2127,34 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.038999999999999e-07</v>
+        <v>7.247e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>2.419e-06</v>
+        <v>2.806e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>8.179000000000001e-06</v>
+        <v>9.403e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.912e-06</v>
+        <v>2.069e-06</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0007191</v>
+        <v>0.0007856</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003376</v>
+        <v>0.003383</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.008186000000000001</v>
+        <v>0.008336</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0142</v>
+        <v>0.0135</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.004589</v>
+        <v>0.004607</v>
       </c>
     </row>
     <row r="5">
@@ -2173,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.198e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>4.448e-05</v>
+        <v>4.455e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001849</v>
+        <v>0.0001991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004781</v>
+        <v>0.0004733</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001116</v>
+        <v>0.0001099</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3.789e-06</v>
+        <v>3.934e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>1.57e-05</v>
+        <v>1.561e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.81e-05</v>
+        <v>4.809e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.105e-05</v>
+        <v>1.056e-05</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2212,34 +2212,34 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.371e-07</v>
+        <v>6.339e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>2.279e-06</v>
+        <v>2.394e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>7.869999999999999e-06</v>
+        <v>7.839999999999999e-06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.828e-06</v>
+        <v>1.729e-06</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0007379</v>
+        <v>0.0008418</v>
       </c>
       <c r="X5" t="n">
-        <v>0.003714</v>
+        <v>0.00371</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.009091999999999999</v>
+        <v>0.009275</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01587</v>
+        <v>0.0151</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.005079</v>
+        <v>0.005104</v>
       </c>
     </row>
     <row r="6">
@@ -2258,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.598e-07</v>
+        <v>1.452e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>4.557e-05</v>
+        <v>4.427e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001818</v>
+        <v>0.0001976</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004606</v>
+        <v>0.0004592</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001086</v>
+        <v>0.0001082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.218e-05</v>
+        <v>1.252e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>4.907e-05</v>
+        <v>5.335e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001352</v>
+        <v>0.00014</v>
       </c>
       <c r="O6" t="n">
-        <v>3.163e-05</v>
+        <v>3.15e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2297,34 +2297,34 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.631e-07</v>
+        <v>2.092e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>7.988e-07</v>
+        <v>8.808e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>2.661e-06</v>
+        <v>2.798e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>6.306e-07</v>
+        <v>6.323e-07</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001037</v>
+        <v>0.001176</v>
       </c>
       <c r="X6" t="n">
-        <v>0.005258</v>
+        <v>0.005329</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01291</v>
+        <v>0.01334</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02225</v>
+        <v>0.0214</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.007229</v>
+        <v>0.007252</v>
       </c>
     </row>
     <row r="7">
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.786e-07</v>
+        <v>1.417e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>4.575e-05</v>
+        <v>4.449e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001806</v>
+        <v>0.0001995</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004488</v>
+        <v>0.0004642</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001064</v>
+        <v>0.0001094</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2364,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.206e-05</v>
+        <v>1.249e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>4.813e-05</v>
+        <v>5.346e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0001314</v>
+        <v>0.0001413</v>
       </c>
       <c r="O7" t="n">
-        <v>3.089e-05</v>
+        <v>3.162e-05</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2382,34 +2382,34 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.646e-07</v>
+        <v>2.14e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>7.621e-07</v>
+        <v>8.945e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>2.54e-06</v>
+        <v>2.859e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>5.97e-07</v>
+        <v>6.467e-07</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001033</v>
+        <v>0.001169</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005242</v>
+        <v>0.005306</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01289</v>
+        <v>0.01331</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02223</v>
+        <v>0.02138</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.007214</v>
+        <v>0.007233</v>
       </c>
     </row>
     <row r="8">
@@ -2428,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.06e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>4.751e-05</v>
+        <v>4.588e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001939</v>
+        <v>0.0002088</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004944</v>
+        <v>0.0004952</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001158</v>
+        <v>0.0001156</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.248e-05</v>
+        <v>1.294e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>5.177e-05</v>
+        <v>5.599e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0001439</v>
+        <v>0.000151</v>
       </c>
       <c r="O8" t="n">
-        <v>3.348e-05</v>
+        <v>3.342e-05</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2467,34 +2467,34 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.453e-07</v>
+        <v>2.007e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>7.982e-07</v>
+        <v>8.793e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>2.665e-06</v>
+        <v>2.742e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>6.233e-07</v>
+        <v>6.301e-07</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001125</v>
+        <v>0.001285</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005768</v>
+        <v>0.005829</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01416</v>
+        <v>0.01468</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02437</v>
+        <v>0.02355</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00793</v>
+        <v>0.007967999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -2513,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>7.394e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>4.72e-05</v>
+        <v>4.697e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002027</v>
+        <v>0.000218</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0005497</v>
+        <v>0.0005339</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001264</v>
+        <v>0.0001223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4.168e-06</v>
+        <v>4.385e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>1.754e-05</v>
+        <v>1.81e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>5.724e-05</v>
+        <v>5.531e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.293e-05</v>
+        <v>1.206e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -2552,34 +2552,34 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>6.01e-07</v>
+        <v>6.997000000000001e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>2.685e-06</v>
+        <v>2.7e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>9.357999999999999e-06</v>
+        <v>9.166e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>2.226e-06</v>
+        <v>2.033e-06</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0007678</v>
+        <v>0.000854</v>
       </c>
       <c r="X9" t="n">
-        <v>0.003696</v>
+        <v>0.003709</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.008972000000000001</v>
+        <v>0.009150999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01567</v>
+        <v>0.01483</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.005028</v>
+        <v>0.005058</v>
       </c>
     </row>
     <row r="10">
@@ -2598,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.977e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>4.533e-05</v>
+        <v>4.439e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001854</v>
+        <v>0.0001993</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004729</v>
+        <v>0.0004861</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001111</v>
+        <v>0.0001118</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2619,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.164e-05</v>
+        <v>1.197e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>4.832e-05</v>
+        <v>5.18e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0001349</v>
+        <v>0.000142</v>
       </c>
       <c r="O10" t="n">
-        <v>3.133e-05</v>
+        <v>3.143e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2637,34 +2637,34 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.315e-07</v>
+        <v>1.903e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>7.417e-07</v>
+        <v>8.151e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>2.512e-06</v>
+        <v>2.629e-06</v>
       </c>
       <c r="U10" t="n">
-        <v>5.768e-07</v>
+        <v>6.003e-07</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001131</v>
+        <v>0.00127</v>
       </c>
       <c r="X10" t="n">
-        <v>0.005838</v>
+        <v>0.005887</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01441</v>
+        <v>0.01488</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0249</v>
+        <v>0.02391</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.008037000000000001</v>
+        <v>0.008054</v>
       </c>
     </row>
     <row r="11">
@@ -2683,19 +2683,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.896e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>4.507e-05</v>
+        <v>4.397e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001875</v>
+        <v>0.0001997</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004871</v>
+        <v>0.0004895</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001135</v>
+        <v>0.0001122</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2704,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.169e-05</v>
+        <v>1.198e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>4.959e-05</v>
+        <v>5.254e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.000141</v>
+        <v>0.0001461</v>
       </c>
       <c r="O11" t="n">
-        <v>3.25e-05</v>
+        <v>3.209e-05</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -2722,34 +2722,34 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41e-07</v>
+        <v>1.898e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>7.559e-07</v>
+        <v>8.266e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>2.635e-06</v>
+        <v>2.677e-06</v>
       </c>
       <c r="U11" t="n">
-        <v>6.121e-07</v>
+        <v>6.097e-07</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001129</v>
+        <v>0.001266</v>
       </c>
       <c r="X11" t="n">
-        <v>0.005844</v>
+        <v>0.005884</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01446</v>
+        <v>0.01488</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.02501</v>
+        <v>0.02393</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.008059</v>
+        <v>0.008056000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2768,19 +2768,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.414e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>4.656e-05</v>
+        <v>4.472e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001887</v>
+        <v>0.0001994</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0004932</v>
+        <v>0.0004634</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001152</v>
+        <v>0.0001092</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.243e-05</v>
+        <v>1.249e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>5.08e-05</v>
+        <v>5.364e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001431</v>
+        <v>0.0001395</v>
       </c>
       <c r="O12" t="n">
-        <v>3.303e-05</v>
+        <v>3.159e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2807,34 +2807,34 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.666e-07</v>
+        <v>2.144e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>8.948e-07</v>
+        <v>8.923e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>2.995e-06</v>
+        <v>2.834e-06</v>
       </c>
       <c r="U12" t="n">
-        <v>7.231e-07</v>
+        <v>6.397e-07</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.001039</v>
+        <v>0.001181</v>
       </c>
       <c r="X12" t="n">
-        <v>0.005266</v>
+        <v>0.005345</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01293</v>
+        <v>0.01336</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02229</v>
+        <v>0.02142</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007242</v>
+        <v>0.007264</v>
       </c>
     </row>
     <row r="13">
@@ -2853,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.598e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>3.499e-05</v>
+        <v>3.39e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001386</v>
+        <v>0.0001488</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003537</v>
+        <v>0.0003557</v>
       </c>
       <c r="I13" t="n">
-        <v>8.384e-05</v>
+        <v>8.301000000000001e-05</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>8.325000000000001e-06</v>
+        <v>8.454000000000001e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>3.395e-05</v>
+        <v>3.619e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>9.618e-05</v>
+        <v>9.852e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>2.221e-05</v>
+        <v>2.185e-05</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2892,34 +2892,34 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.202e-06</v>
+        <v>1.383e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>4.757e-06</v>
+        <v>4.965e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.528e-05</v>
+        <v>1.602e-05</v>
       </c>
       <c r="U13" t="n">
-        <v>3.588e-06</v>
+        <v>3.545e-06</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0003709</v>
+        <v>0.0004239</v>
       </c>
       <c r="X13" t="n">
-        <v>0.002026</v>
+        <v>0.001998</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.005253</v>
+        <v>0.005294</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0092</v>
+        <v>0.008803999999999999</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.002872</v>
+        <v>0.002886</v>
       </c>
     </row>
     <row r="14">
@@ -2938,19 +2938,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.772000000000001e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>3.478e-05</v>
+        <v>3.447e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001371</v>
+        <v>0.0001525</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003467</v>
+        <v>0.0003634</v>
       </c>
       <c r="I14" t="n">
-        <v>8.242e-05</v>
+        <v>8.489e-05</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>8.243999999999999e-06</v>
+        <v>8.658000000000001e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>3.343e-05</v>
+        <v>3.728e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>9.273e-05</v>
+        <v>0.0001011</v>
       </c>
       <c r="O14" t="n">
-        <v>2.162e-05</v>
+        <v>2.245e-05</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2977,34 +2977,34 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.182e-06</v>
+        <v>1.421e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>4.691e-06</v>
+        <v>5.128e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>1.459e-05</v>
+        <v>1.652e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>3.458e-06</v>
+        <v>3.656e-06</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0003691</v>
+        <v>0.000427</v>
       </c>
       <c r="X14" t="n">
-        <v>0.002019</v>
+        <v>0.002008</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005231</v>
+        <v>0.005292</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.009162</v>
+        <v>0.008763</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.00286</v>
+        <v>0.002888</v>
       </c>
     </row>
     <row r="15">
@@ -3023,19 +3023,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7.799e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>3.467e-05</v>
+        <v>3.408e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001393</v>
+        <v>0.0001503</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003647</v>
+        <v>0.0003561</v>
       </c>
       <c r="I15" t="n">
-        <v>8.591e-05</v>
+        <v>8.335000000000001e-05</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3044,16 +3044,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>8.352999999999999e-06</v>
+        <v>8.566000000000001e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>3.435e-05</v>
+        <v>3.656e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0001002</v>
+        <v>9.867e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>2.291e-05</v>
+        <v>2.195e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -3062,34 +3062,34 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.236e-06</v>
+        <v>1.374e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>4.761e-06</v>
+        <v>5.002e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.604e-05</v>
+        <v>1.606e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>3.752e-06</v>
+        <v>3.555e-06</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0003709</v>
+        <v>0.0004239</v>
       </c>
       <c r="X15" t="n">
-        <v>0.002026</v>
+        <v>0.002001</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.005258</v>
+        <v>0.005282</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009209</v>
+        <v>0.008758</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002874</v>
+        <v>0.002882</v>
       </c>
     </row>
     <row r="16">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.303e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>3.554e-05</v>
+        <v>3.559e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001499</v>
+        <v>0.0001584</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003992</v>
+        <v>0.0003827</v>
       </c>
       <c r="I16" t="n">
-        <v>9.255e-05</v>
+        <v>8.854e-05</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -3129,16 +3129,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>8.544e-06</v>
+        <v>8.793e-06</v>
       </c>
       <c r="M16" t="n">
-        <v>3.616e-05</v>
+        <v>3.797e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0001069</v>
+        <v>0.0001039</v>
       </c>
       <c r="O16" t="n">
-        <v>2.442e-05</v>
+        <v>2.301e-05</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -3147,34 +3147,34 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.191e-06</v>
+        <v>1.397e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>4.812e-06</v>
+        <v>5.036e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>1.678e-05</v>
+        <v>1.65e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>3.906e-06</v>
+        <v>3.616e-06</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0003895</v>
+        <v>0.0004501</v>
       </c>
       <c r="X16" t="n">
-        <v>0.002188</v>
+        <v>0.002165</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.005742</v>
+        <v>0.005787</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01009</v>
+        <v>0.009641</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003131</v>
+        <v>0.003152</v>
       </c>
     </row>
     <row r="17">
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.6e-05</v>
+        <v>3.569e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001457</v>
+        <v>0.0001655</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003708</v>
+        <v>0.0004111</v>
       </c>
       <c r="I17" t="n">
-        <v>8.757e-05</v>
+        <v>9.375e-05</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>8.389e-06</v>
+        <v>9.052000000000001e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>3.463e-05</v>
+        <v>3.879e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>9.759000000000001e-05</v>
+        <v>0.0001129</v>
       </c>
       <c r="O17" t="n">
-        <v>2.268e-05</v>
+        <v>2.484e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3232,34 +3232,34 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.153e-06</v>
+        <v>1.469e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>4.621e-06</v>
+        <v>5.507e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>1.516e-05</v>
+        <v>1.841e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>3.521e-06</v>
+        <v>4.019e-06</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0003895</v>
+        <v>0.0004532</v>
       </c>
       <c r="X17" t="n">
-        <v>0.002188</v>
+        <v>0.002168</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.005748</v>
+        <v>0.005784</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0101</v>
+        <v>0.009616</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003134</v>
+        <v>0.003151</v>
       </c>
     </row>
     <row r="18">
@@ -3281,16 +3281,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.555e-05</v>
+        <v>3.494e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001505</v>
+        <v>0.0001613</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004032</v>
+        <v>0.0003979</v>
       </c>
       <c r="I18" t="n">
-        <v>9.329e-05</v>
+        <v>9.116e-05</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>8.544e-06</v>
+        <v>8.823e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>3.639e-05</v>
+        <v>3.763e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001082</v>
+        <v>0.0001095</v>
       </c>
       <c r="O18" t="n">
-        <v>2.468e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3317,34 +3317,34 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.208e-06</v>
+        <v>1.421e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>4.852e-06</v>
+        <v>5.331e-06</v>
       </c>
       <c r="T18" t="n">
-        <v>1.701e-05</v>
+        <v>1.759e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>3.965e-06</v>
+        <v>3.849e-06</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0003902</v>
+        <v>0.0004441</v>
       </c>
       <c r="X18" t="n">
-        <v>0.002191</v>
+        <v>0.002156</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.005745</v>
+        <v>0.005776</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01009</v>
+        <v>0.009642</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.003133</v>
+        <v>0.003144</v>
       </c>
     </row>
     <row r="19">
@@ -3363,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.13e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>3.568e-05</v>
+        <v>3.563e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001486</v>
+        <v>0.0001632</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0003883</v>
+        <v>0.0003981</v>
       </c>
       <c r="I19" t="n">
-        <v>9.061e-05</v>
+        <v>9.140999999999999e-05</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>8.473e-06</v>
+        <v>8.993e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>3.562e-05</v>
+        <v>3.843e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0001031</v>
+        <v>0.0001098</v>
       </c>
       <c r="O19" t="n">
-        <v>2.377e-05</v>
+        <v>2.393e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3402,34 +3402,34 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.188e-06</v>
+        <v>1.459e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>4.726e-06</v>
+        <v>5.262e-06</v>
       </c>
       <c r="T19" t="n">
-        <v>1.621e-05</v>
+        <v>1.737e-05</v>
       </c>
       <c r="U19" t="n">
-        <v>3.766e-06</v>
+        <v>3.813e-06</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0003897</v>
+        <v>0.000454</v>
       </c>
       <c r="X19" t="n">
-        <v>0.002189</v>
+        <v>0.002172</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.005754</v>
+        <v>0.005796</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01011</v>
+        <v>0.009636</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.003136</v>
+        <v>0.003158</v>
       </c>
     </row>
     <row r="20">
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.532e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>3.46e-05</v>
+        <v>3.411e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001406</v>
+        <v>0.0001526</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0003698</v>
+        <v>0.0003704</v>
       </c>
       <c r="I20" t="n">
-        <v>8.695e-05</v>
+        <v>8.611e-05</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>8.376000000000001e-06</v>
+        <v>8.576999999999999e-06</v>
       </c>
       <c r="M20" t="n">
-        <v>3.459e-05</v>
+        <v>3.713e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0001019</v>
+        <v>0.0001025</v>
       </c>
       <c r="O20" t="n">
-        <v>2.329e-05</v>
+        <v>2.293e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3487,34 +3487,34 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.266e-06</v>
+        <v>1.437e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>4.798e-06</v>
+        <v>5.26e-06</v>
       </c>
       <c r="T20" t="n">
-        <v>1.638e-05</v>
+        <v>1.727e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>3.835e-06</v>
+        <v>3.785e-06</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0003698</v>
+        <v>0.0004209</v>
       </c>
       <c r="X20" t="n">
-        <v>0.002022</v>
+        <v>0.001994</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.005232</v>
+        <v>0.005275</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.009162</v>
+        <v>0.008758999999999999</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.002862</v>
+        <v>0.002877</v>
       </c>
     </row>
     <row r="21">
@@ -3533,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.441e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>4.571e-05</v>
+        <v>4.461e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001845</v>
+        <v>0.0002</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0004809</v>
+        <v>0.0004654</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001125</v>
+        <v>0.0001096</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24e-05</v>
+        <v>1.267e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>5.085e-05</v>
+        <v>5.407e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0001452</v>
+        <v>0.0001423</v>
       </c>
       <c r="O21" t="n">
-        <v>3.33e-05</v>
+        <v>3.195e-05</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -3572,34 +3572,34 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.608e-07</v>
+        <v>2.149e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>8.609e-07</v>
+        <v>8.983e-07</v>
       </c>
       <c r="T21" t="n">
-        <v>2.875e-06</v>
+        <v>2.873e-06</v>
       </c>
       <c r="U21" t="n">
-        <v>6.921e-07</v>
+        <v>6.497e-07</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.001033</v>
+        <v>0.001177</v>
       </c>
       <c r="X21" t="n">
-        <v>0.00525</v>
+        <v>0.005336</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01293</v>
+        <v>0.01336</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02232</v>
+        <v>0.02144</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.007234</v>
+        <v>0.007263</v>
       </c>
     </row>
     <row r="22">
@@ -3618,19 +3618,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.089e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>4.676e-05</v>
+        <v>4.633e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001943</v>
+        <v>0.0002135</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0005067</v>
+        <v>0.0005153</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001179</v>
+        <v>0.0001189</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.962e-06</v>
+        <v>4.182e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>1.673e-05</v>
+        <v>1.745e-05</v>
       </c>
       <c r="N22" t="n">
-        <v>5.155e-05</v>
+        <v>5.207e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.186e-05</v>
+        <v>1.145e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3657,34 +3657,34 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.544e-07</v>
+        <v>6.767e-07</v>
       </c>
       <c r="S22" t="n">
-        <v>2.449e-06</v>
+        <v>2.596e-06</v>
       </c>
       <c r="T22" t="n">
-        <v>8.449e-06</v>
+        <v>8.568e-06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.982e-06</v>
+        <v>1.896e-06</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0007549</v>
+        <v>0.0008459</v>
       </c>
       <c r="X22" t="n">
-        <v>0.003677</v>
+        <v>0.003686</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.008949</v>
+        <v>0.009136999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01563</v>
+        <v>0.01483</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.005011</v>
+        <v>0.005043</v>
       </c>
     </row>
   </sheetData>
